--- a/бот.xlsx
+++ b/бот.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edward\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NODE\JS_Lessons\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Август" sheetId="1" r:id="rId1"/>
     <sheet name="Сентябрь" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,12 +24,8 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
@@ -1429,7 +1425,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1447,137 +1443,61 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
-        <v>44805</v>
-      </c>
-      <c r="C1" s="11">
-        <v>11447</v>
-      </c>
-      <c r="D1" s="11">
-        <v>1182</v>
-      </c>
-      <c r="E1" s="11">
-        <v>32207</v>
-      </c>
-      <c r="F1" s="11">
-        <v>15216</v>
-      </c>
-      <c r="G1" s="10">
-        <v>28863</v>
-      </c>
-      <c r="H1" s="11">
-        <v>14787</v>
-      </c>
-      <c r="I1" s="8">
-        <v>79</v>
-      </c>
-      <c r="J1" s="11">
-        <v>2560</v>
-      </c>
-      <c r="K1" s="8">
-        <v>792</v>
-      </c>
+        <v>44895</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="8"/>
       <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>44806</v>
-      </c>
-      <c r="C2" s="10">
-        <v>11603</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1160</v>
-      </c>
-      <c r="E2" s="10">
-        <v>30272</v>
-      </c>
-      <c r="F2" s="10">
-        <v>15599</v>
-      </c>
-      <c r="G2" s="10">
-        <v>27245</v>
-      </c>
-      <c r="H2" s="10">
-        <v>14711</v>
-      </c>
-      <c r="I2" s="10">
-        <v>57</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
       <c r="J2" s="9"/>
-      <c r="K2" s="2">
-        <v>909</v>
-      </c>
+      <c r="K2" s="2"/>
       <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>44807</v>
-      </c>
-      <c r="C3" s="10">
-        <v>12122</v>
-      </c>
-      <c r="D3" s="10">
-        <v>1081</v>
-      </c>
-      <c r="E3" s="10">
-        <v>37494</v>
-      </c>
-      <c r="F3" s="10">
-        <v>17686</v>
-      </c>
-      <c r="G3" s="10">
-        <v>34452</v>
-      </c>
-      <c r="H3" s="10">
-        <v>16493</v>
-      </c>
-      <c r="I3" s="10">
-        <v>65</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="10">
-        <v>739</v>
-      </c>
+      <c r="K3" s="10"/>
       <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>44808</v>
-      </c>
-      <c r="C4" s="10">
-        <v>9809</v>
-      </c>
-      <c r="D4" s="9">
-        <v>960</v>
-      </c>
-      <c r="E4" s="10">
-        <v>32944</v>
-      </c>
-      <c r="F4" s="10">
-        <v>15410</v>
-      </c>
-      <c r="G4" s="10">
-        <v>31977</v>
-      </c>
-      <c r="H4" s="10">
-        <v>15064</v>
-      </c>
-      <c r="I4" s="10">
-        <v>57</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="10">
-        <v>955</v>
-      </c>
+      <c r="K4" s="10"/>
       <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>44809</v>
-      </c>
-      <c r="C5" s="12">
-        <v>9966</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
@@ -1589,12 +1509,8 @@
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>44810</v>
-      </c>
-      <c r="C6" s="10">
-        <v>9095</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -1606,12 +1522,8 @@
       <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>44811</v>
-      </c>
-      <c r="C7" s="10">
-        <v>8859</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -1623,12 +1535,8 @@
       <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>44812</v>
-      </c>
-      <c r="C8" s="10">
-        <v>9558</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -1640,12 +1548,8 @@
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>44813</v>
-      </c>
-      <c r="C9" s="10">
-        <v>10810</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -1657,9 +1561,7 @@
       <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>44814</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="10"/>
@@ -1672,9 +1574,7 @@
       <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>44815</v>
-      </c>
+      <c r="A11" s="1"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
@@ -1687,9 +1587,7 @@
       <c r="L11" s="10"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>44816</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -1702,9 +1600,7 @@
       <c r="L12" s="10"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>44817</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -1717,9 +1613,7 @@
       <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>44818</v>
-      </c>
+      <c r="A14" s="1"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -1732,9 +1626,7 @@
       <c r="L14" s="10"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>44819</v>
-      </c>
+      <c r="A15" s="1"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -1747,9 +1639,7 @@
       <c r="L15" s="10"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>44820</v>
-      </c>
+      <c r="A16" s="1"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -1762,9 +1652,7 @@
       <c r="L16" s="10"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>44821</v>
-      </c>
+      <c r="A17" s="1"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -1777,9 +1665,7 @@
       <c r="L17" s="10"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>44822</v>
-      </c>
+      <c r="A18" s="1"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -1792,9 +1678,7 @@
       <c r="L18" s="10"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>44823</v>
-      </c>
+      <c r="A19" s="1"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -1807,9 +1691,7 @@
       <c r="L19" s="10"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>44824</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -1822,9 +1704,7 @@
       <c r="L20" s="10"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>44825</v>
-      </c>
+      <c r="A21" s="1"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -1837,9 +1717,7 @@
       <c r="L21" s="10"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>44826</v>
-      </c>
+      <c r="A22" s="1"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -1852,9 +1730,7 @@
       <c r="L22" s="10"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>44827</v>
-      </c>
+      <c r="A23" s="1"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -1867,9 +1743,7 @@
       <c r="L23" s="10"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>44828</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -1882,9 +1756,7 @@
       <c r="L24" s="10"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>44829</v>
-      </c>
+      <c r="A25" s="1"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
@@ -1897,9 +1769,7 @@
       <c r="L25" s="10"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>44830</v>
-      </c>
+      <c r="A26" s="1"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
@@ -1912,9 +1782,7 @@
       <c r="L26" s="10"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>44831</v>
-      </c>
+      <c r="A27" s="1"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -1927,9 +1795,7 @@
       <c r="L27" s="10"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>44832</v>
-      </c>
+      <c r="A28" s="1"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
@@ -1942,9 +1808,7 @@
       <c r="L28" s="10"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>44833</v>
-      </c>
+      <c r="A29" s="1"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
@@ -1957,9 +1821,7 @@
       <c r="L29" s="10"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>44834</v>
-      </c>
+      <c r="A30" s="1"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
@@ -1985,42 +1847,15 @@
       <c r="L31" s="10"/>
     </row>
     <row r="33" spans="3:12" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C33" s="7">
-        <f t="shared" ref="C33:K33" si="0">SUM(C1:C32)</f>
-        <v>93269</v>
-      </c>
-      <c r="D33" s="7">
-        <f t="shared" si="0"/>
-        <v>4383</v>
-      </c>
-      <c r="E33" s="7">
-        <f t="shared" si="0"/>
-        <v>132917</v>
-      </c>
-      <c r="F33" s="7">
-        <f t="shared" si="0"/>
-        <v>63911</v>
-      </c>
-      <c r="G33" s="7">
-        <f t="shared" si="0"/>
-        <v>122537</v>
-      </c>
-      <c r="H33" s="7">
-        <f t="shared" si="0"/>
-        <v>61055</v>
-      </c>
-      <c r="I33" s="7">
-        <f t="shared" si="0"/>
-        <v>258</v>
-      </c>
-      <c r="J33" s="7">
-        <f t="shared" si="0"/>
-        <v>2560</v>
-      </c>
-      <c r="K33" s="7">
-        <f t="shared" si="0"/>
-        <v>3395</v>
-      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
       <c r="L33" s="7"/>
     </row>
     <row r="34" spans="3:12" ht="17.25" x14ac:dyDescent="0.3">
